--- a/docs/Collector1/Collector1_01.08.24_output.xlsx
+++ b/docs/Collector1/Collector1_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,77 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,863 +515,1176 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1730743831.6151886</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730743831.6151886.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>288.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="N3" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1730743840.8953545</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730743840.8953545.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>132.73</v>
       </c>
-      <c r="J4" t="n">
-        <v>132.73</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.6299999999999955</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1730743844.5553584</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730743844.5553584.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>6741</v>
       </c>
-      <c r="J5" t="n">
-        <v>6741</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>6687</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-54</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1730743859.352406</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730743859.352406.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>511.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>511.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-4.599999999999966</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1730743872.5508487</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730743872.5508487.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>230.67</v>
       </c>
-      <c r="J7" t="n">
-        <v>230.67</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="N7" t="n">
+        <v>229.85</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1730743882.6535375</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730743882.6535375.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>1032.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>1032.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1730743886.3480532</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>./test_images/CNY1730743886.3480532.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>11.872</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.872</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>11.864</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.007999999999999119</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1730743893.4823146</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730743893.4823146.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>128.84</v>
       </c>
-      <c r="J10" t="n">
-        <v>128.84</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="N10" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.2000000000000171</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1730743903.815357</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730743903.815357.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>165.02</v>
       </c>
-      <c r="J11" t="n">
-        <v>165.02</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.3600000000000136</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1730743906.9935832</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730743906.9935832.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
         <v>50.72</v>
       </c>
-      <c r="J12" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="N12" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1730743917.438981</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730743917.438981.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1412.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1730743935.8503904</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730743935.8503904.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>60.7</v>
       </c>
-      <c r="J14" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1730743944.9259355</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>./test_images/SELG1730743944.9259355.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>57.96</v>
       </c>
-      <c r="J15" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.759999999999998</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1730743956.0083447</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730743956.0083447.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="M16" t="n">
         <v>143.92</v>
       </c>
-      <c r="J16" t="n">
-        <v>143.92</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1730743966.6338723</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730743966.6338723.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
         <v>20.856</v>
       </c>
-      <c r="J17" t="n">
-        <v>20.856</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="N17" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.02500000000000213</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1730743975.0495093</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730743975.0495093.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
         <v>679.55</v>
       </c>
-      <c r="J18" t="n">
-        <v>679.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.3499999999999091</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1730743988.06404</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>./test_images/FEES1730743988.06404.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
         <v>0.09934000000000001</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.09934000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-6.000000000001837e-05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>1730743997.0746558</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730743997.0746558.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.001500000000000057</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1730744001.395411</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744001.395411.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="M21" t="n">
         <v>3024.7</v>
       </c>
-      <c r="J21" t="n">
-        <v>3024.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-28.64999999999964</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1730744014.6830225</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730744014.6830225.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
         <v>34.61</v>
       </c>
-      <c r="J22" t="n">
-        <v>34.61</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.1850000000000023</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1722,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1392,10 +1745,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.02500000000000213</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.02500000000000213</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="3">
@@ -1405,10 +1767,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-28.64999999999964</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-28.64999999999964</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="4">
@@ -1418,10 +1789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.9399999999999977</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="5">
@@ -1431,10 +1811,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.3499999999999091</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3499999999999091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1444,10 +1833,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.759999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.759999999999998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="7">
@@ -1457,10 +1855,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.6499999999999773</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="8">
@@ -1470,10 +1877,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.1850000000000023</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1850000000000023</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="9">
@@ -1483,10 +1899,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-4.599999999999966</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.599999999999966</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="10">
@@ -1496,10 +1921,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-1.600000000000136</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="11">
@@ -1509,10 +1943,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.3600000000000136</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3600000000000136</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="12">
@@ -1522,10 +1965,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="13">
@@ -1535,10 +1987,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.02000000000000313</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14">
@@ -1548,10 +2009,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.1499999999999986</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="15">
@@ -1561,10 +2031,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="16">
@@ -1574,10 +2053,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.001500000000000057</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="17">
@@ -1587,10 +2075,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.2000000000000171</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2000000000000171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="18">
@@ -1600,10 +2097,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.6299999999999955</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="19">
@@ -1613,10 +2119,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-6.000000000001837e-05</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-6.000000000001837e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
@@ -1626,10 +2141,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.007999999999999119</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.007999999999999119</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1639,10 +2163,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
@@ -1657,6 +2190,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
